--- a/Practicas/practica Van Tir 070519.xlsx
+++ b/Practicas/practica Van Tir 070519.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1646A34-E53B-4BA8-B8C5-44A8CB14DE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA6E6A-B5F8-46EA-9F08-5EA79FC27A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>PARTE PRACTICA</t>
   </si>
@@ -258,7 +258,56 @@
     <t>Se eligirían los proyectos B y D, debido a que su combinación da el mayor VAN de todas las combinaciones.</t>
   </si>
   <si>
-    <t>Se eligiría el proyecto D</t>
+    <t>Los componentes de tiempo de la producción son los siguientes:
+- Tiempo de preparación: tiempo necesario para disponer los recursos para efectuar la operación
+- Tiempo de operación: consumido por los recursos en efecutar la  operación
+- Tiempo de transferencia: para transportar una cantidad de producto a una nueva operación.
+- Tiempo de espera: ninguno de los anteriores.</t>
+  </si>
+  <si>
+    <t>Los sistemas de producción se dividen en:
+- Sistemas contra stock: no cumplen con una demanda específica sino por un análisis de ventas. La producción es continua. Tienen como ventaja la inmediatez de la disponiblidad de productos
+- Sistemas "pull": la producción se organiza en función a lo que pide el cliente. Es decir, es producción a demanda. Se programan actividades y se asignan los recusos necesarios en el tiempo preciso (Just in Time). La gran ventaja es que generan poco stock, y por lo tanto hay poco capital inmovilizado. En contrapartida, no tienen disponibilidad inmediata.</t>
+  </si>
+  <si>
+    <t>Núcleo de operaciones: parte encargada de realizar las operaciones de transformación de las materias. Podemos mencionar asegurar inputs, transformación de inputs a outputs, entre otras. 
+Directivos: ocupan el estrato superor, y se encargan de las tareas de dirección, control, administración, entre otras.
+Mandos medios: se encuentran por debajo de los directivos y por encima de los operarios en lo que respecta al nivel jerárgico. Vinculan el ápice estratégico con operarios.
+Analistas: personal que se encuentra encargada de estudiar el control de la producción y las pautas a seguir.
+Ideología: se encuentra referida a las tradiciones y creencias de una organización, los cuales le otorgan identidad de forma de "vida".</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>No contienen máximo de socios</t>
+  </si>
+  <si>
+    <t>Cantidad máxima de socios de 50</t>
+  </si>
+  <si>
+    <t>Tienen contitución más constosa y están sujeta a mayores controles legales.</t>
+  </si>
+  <si>
+    <t>Constitución simple y estatuto flexible.</t>
+  </si>
+  <si>
+    <t>Obligación de presentar estados contables</t>
+  </si>
+  <si>
+    <t>Ninguna obligación en lo que respecta a estados contables</t>
+  </si>
+  <si>
+    <t>Aporte de los integrantes por acciones (títulos negociables)</t>
+  </si>
+  <si>
+    <t>Participación de los socios por Cuotas Partes, sin posibilidad de negociación.</t>
+  </si>
+  <si>
+    <t>Se eligiría nuevamentes ambos proyectos porque tienen los mayores TIRs. Es lo buscado en proyectos de inversión</t>
   </si>
 </sst>
 </file>
@@ -272,7 +321,7 @@
     <numFmt numFmtId="166" formatCode="_ &quot;$&quot;\ * #,##0_ ;_ &quot;$&quot;\ * \-#,##0_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +381,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +414,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -496,12 +564,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,15 +842,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -665,10 +870,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -685,6 +967,169 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>321876</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>223347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>575593</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3171FEE9-88A6-4F42-8D9F-CF34888EE209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3481548" y="4677106"/>
+          <a:ext cx="7249666" cy="3231931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742294</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85396</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF856DDD-FF19-43A1-8BEB-DD392FD93D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3172810" y="12172293"/>
+          <a:ext cx="1491156" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14451</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>86710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>735724</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A47B3F5-F700-4E71-A080-E472F03E71D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9408072" y="12745107"/>
+          <a:ext cx="721273" cy="5255"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1730,7 @@
       <c r="F11" s="13">
         <v>180000</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="74">
         <f>IRR(C6:C11)</f>
         <v>0.17452334618948084</v>
       </c>
@@ -1327,7 +1772,7 @@
       <c r="H13" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="73">
         <v>0.17</v>
       </c>
       <c r="O13" s="3"/>
@@ -1412,7 +1857,7 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O18" s="55"/>
       <c r="P18" s="3"/>
@@ -1498,6 +1943,8 @@
       <c r="D26" s="12">
         <v>1</v>
       </c>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1513,6 +1960,8 @@
       <c r="D27" s="10">
         <v>3</v>
       </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -1528,6 +1977,8 @@
       <c r="D28" s="10">
         <v>2</v>
       </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -1543,6 +1994,8 @@
       <c r="D29" s="10">
         <v>3</v>
       </c>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -1579,220 +2032,138 @@
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="76"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="76"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="55"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="76"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="13">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="17">
-        <v>4</v>
-      </c>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="76"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
-      <c r="F36" s="17">
-        <v>5</v>
-      </c>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="76"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="13">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="17">
-        <v>3</v>
-      </c>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="76"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="13">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="F38" s="17">
-        <v>5</v>
-      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="76"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="13">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1">
-        <v>8</v>
-      </c>
-      <c r="F39" s="17">
-        <v>4</v>
-      </c>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="76"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="13">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="17">
-        <v>8</v>
-      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="76"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="13">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="1">
-        <v>12</v>
-      </c>
-      <c r="F41" s="17">
-        <v>5</v>
-      </c>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="76"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
       <c r="O44" s="55"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>37</v>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -1800,77 +2171,75 @@
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4</v>
+      </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="17">
+        <v>5</v>
+      </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
+      <c r="B49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="13">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="17">
+        <v>3</v>
+      </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
+      <c r="B50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="13">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F50" s="17">
         <v>5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1">
-        <v>8</v>
-      </c>
-      <c r="J50" s="1">
-        <v>9</v>
-      </c>
-      <c r="K50" s="1">
-        <v>10</v>
-      </c>
-      <c r="L50" s="1">
-        <v>11</v>
-      </c>
-      <c r="M50" s="5">
-        <v>12</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -1878,336 +2247,908 @@
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="41"/>
+      <c r="B51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="13">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="17">
+        <v>4</v>
+      </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="41"/>
+      <c r="B52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="13">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="17">
+        <v>8</v>
+      </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="41"/>
+      <c r="B53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="13">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="1">
+        <v>12</v>
+      </c>
+      <c r="F53" s="17">
+        <v>5</v>
+      </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="3"/>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="O54" s="55"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="41"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="55"/>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="41"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="41"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="55"/>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="55"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7</v>
+      </c>
+      <c r="I60" s="1">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1">
+        <v>9</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1">
+        <v>11</v>
+      </c>
+      <c r="M60" s="5">
+        <v>12</v>
+      </c>
+      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="55"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="18"/>
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="41"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
+      <c r="A63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="41"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="41"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="82"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="81">
+        <v>4</v>
+      </c>
+      <c r="C68" s="81">
+        <v>4</v>
+      </c>
+      <c r="D68" s="81">
+        <v>5</v>
+      </c>
+      <c r="E68" s="81">
+        <v>3</v>
+      </c>
+      <c r="F68" s="81">
+        <v>3</v>
+      </c>
+      <c r="G68" s="81">
+        <v>5</v>
+      </c>
+      <c r="H68" s="81">
+        <v>5</v>
+      </c>
+      <c r="I68" s="81">
+        <v>4</v>
+      </c>
+      <c r="J68" s="81">
+        <v>8</v>
+      </c>
+      <c r="K68" s="81">
+        <v>8</v>
+      </c>
+      <c r="L68" s="81">
+        <v>8</v>
+      </c>
+      <c r="M68" s="81">
+        <v>5</v>
+      </c>
+      <c r="N68" s="41"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="38">
+        <v>-3</v>
+      </c>
+      <c r="C69" s="38">
+        <v>-3</v>
+      </c>
+      <c r="D69" s="38">
+        <v>-3</v>
+      </c>
+      <c r="E69" s="38">
+        <v>-2</v>
+      </c>
+      <c r="F69" s="38">
+        <v>-2</v>
+      </c>
+      <c r="G69" s="38">
+        <v>-4</v>
+      </c>
+      <c r="H69" s="38">
+        <v>-4</v>
+      </c>
+      <c r="I69" s="38">
+        <v>-7</v>
+      </c>
+      <c r="J69" s="38">
+        <v>-7</v>
+      </c>
+      <c r="K69" s="38">
+        <v>-7</v>
+      </c>
+      <c r="L69" s="38">
+        <v>-3</v>
+      </c>
+      <c r="M69" s="38">
+        <v>-2</v>
+      </c>
+      <c r="N69" s="37"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="49">
+        <f>SUM(B68:B69)</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="49">
+        <f t="shared" ref="C70:M70" si="2">SUM(C68:C69)</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="49">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="49">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="J70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L70" s="49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M70" s="49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N70" s="39"/>
+      <c r="O70" s="55"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="81">
+        <v>4</v>
+      </c>
+      <c r="C71" s="81">
+        <v>4</v>
+      </c>
+      <c r="D71" s="81">
+        <v>5</v>
+      </c>
+      <c r="E71" s="81">
+        <v>3</v>
+      </c>
+      <c r="F71" s="81">
+        <v>3</v>
+      </c>
+      <c r="G71" s="81">
+        <v>5</v>
+      </c>
+      <c r="H71" s="81">
+        <v>5</v>
+      </c>
+      <c r="I71" s="81">
+        <v>4</v>
+      </c>
+      <c r="J71" s="81">
+        <v>8</v>
+      </c>
+      <c r="K71" s="81">
+        <v>8</v>
+      </c>
+      <c r="L71" s="81">
+        <v>8</v>
+      </c>
+      <c r="M71" s="81">
+        <v>5</v>
+      </c>
+      <c r="N71" s="18"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="38">
+        <v>-3</v>
+      </c>
+      <c r="C72" s="38">
+        <v>-3</v>
+      </c>
+      <c r="D72" s="38">
+        <v>-3</v>
+      </c>
+      <c r="E72" s="38">
+        <v>-2</v>
+      </c>
+      <c r="F72" s="38">
+        <v>-2</v>
+      </c>
+      <c r="G72" s="38">
+        <v>-4</v>
+      </c>
+      <c r="H72" s="38">
+        <v>-4</v>
+      </c>
+      <c r="I72" s="34">
+        <v>-3</v>
+      </c>
+      <c r="J72" s="34">
+        <v>-7</v>
+      </c>
+      <c r="K72" s="34">
+        <v>-7</v>
+      </c>
+      <c r="L72" s="34">
+        <v>-7</v>
+      </c>
+      <c r="M72" s="83">
+        <v>-2</v>
+      </c>
+      <c r="N72" s="18"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="84">
+        <f>SUM(B71:B72)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="84">
+        <f t="shared" ref="C73:M73" si="3">SUM(C71:C72)</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M73" s="84">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+    </row>
+    <row r="79" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="86"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+    </row>
+    <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+    <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+    </row>
+    <row r="83" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+    </row>
+    <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="86"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+    <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+    </row>
+    <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="88"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+    </row>
+    <row r="88" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="88"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="87"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="72" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="92"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="94"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="93"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="94"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="95"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="94"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
+      <c r="I96" s="96"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="100"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
+      <c r="I97" s="102"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="89"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="89"/>
+      <c r="H98" s="89"/>
+      <c r="I98" s="96"/>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="99"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="98"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B49:M49"/>
+  <mergeCells count="14">
+    <mergeCell ref="B96:E97"/>
+    <mergeCell ref="F96:I97"/>
+    <mergeCell ref="B98:E99"/>
+    <mergeCell ref="F98:I99"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="B92:E93"/>
+    <mergeCell ref="F92:I93"/>
+    <mergeCell ref="B94:E95"/>
+    <mergeCell ref="F94:I95"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="A78:I79"/>
+    <mergeCell ref="A82:I83"/>
+    <mergeCell ref="A86:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2752,20 +3693,20 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
@@ -3137,47 +4078,47 @@
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68" t="s">
+      <c r="A67" s="59"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="71"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="71"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="68"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="67">
+      <c r="B68" s="64">
         <v>1</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63">
+      <c r="C68" s="59"/>
+      <c r="D68" s="60">
         <v>2</v>
       </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="66">
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="63">
         <v>3</v>
       </c>
-      <c r="I68" s="67"/>
-      <c r="M68" s="71"/>
+      <c r="I68" s="64"/>
+      <c r="M68" s="68"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="13" t="s">
         <v>61</v>
       </c>
@@ -3190,13 +4131,13 @@
       <c r="F69" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="74" t="s">
+      <c r="G69" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="74" t="s">
+      <c r="H69" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I69" s="74" t="s">
+      <c r="I69" s="71" t="s">
         <v>64</v>
       </c>
       <c r="J69" s="13">
@@ -3213,7 +4154,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="13">
         <v>10</v>
       </c>

--- a/Practicas/practica Van Tir 070519.xlsx
+++ b/Practicas/practica Van Tir 070519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA6E6A-B5F8-46EA-9F08-5EA79FC27A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40268E-F55A-415B-AB94-84D42F0D883D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,9 +878,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,55 +898,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,6 +1127,74 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>696313</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266045</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>167509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flecha: curvada hacia la izquierda 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFC7A9F-486E-48AB-98AB-CB976A9919F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8239128" y="11214867"/>
+          <a:ext cx="381000" cy="2460077"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 38710"/>
+            <a:gd name="adj3" fmla="val 23276"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1455,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,20 +2414,20 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="99"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -2438,7 +2506,7 @@
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
-      <c r="D62" s="79"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="46"/>
       <c r="F62" s="46"/>
       <c r="G62" s="46"/>
@@ -2512,7 +2580,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
-      <c r="L65" s="82"/>
+      <c r="L65" s="81"/>
       <c r="M65" s="46"/>
       <c r="N65" s="41"/>
       <c r="O65" s="3"/>
@@ -2565,43 +2633,43 @@
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="81">
+      <c r="B68" s="80">
         <v>4</v>
       </c>
-      <c r="C68" s="81">
+      <c r="C68" s="80">
         <v>4</v>
       </c>
-      <c r="D68" s="81">
+      <c r="D68" s="80">
         <v>5</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="80">
         <v>3</v>
       </c>
-      <c r="F68" s="81">
+      <c r="F68" s="80">
         <v>3</v>
       </c>
-      <c r="G68" s="81">
+      <c r="G68" s="80">
         <v>5</v>
       </c>
-      <c r="H68" s="81">
+      <c r="H68" s="80">
         <v>5</v>
       </c>
-      <c r="I68" s="81">
+      <c r="I68" s="80">
         <v>4</v>
       </c>
-      <c r="J68" s="81">
+      <c r="J68" s="80">
         <v>8</v>
       </c>
-      <c r="K68" s="81">
+      <c r="K68" s="80">
         <v>8</v>
       </c>
-      <c r="L68" s="81">
+      <c r="L68" s="80">
         <v>8</v>
       </c>
-      <c r="M68" s="81">
+      <c r="M68" s="80">
         <v>5</v>
       </c>
       <c r="N68" s="41"/>
@@ -2718,40 +2786,40 @@
       <c r="A71" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="81">
+      <c r="B71" s="80">
         <v>4</v>
       </c>
-      <c r="C71" s="81">
+      <c r="C71" s="80">
         <v>4</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="80">
         <v>5</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="80">
         <v>3</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="80">
         <v>3</v>
       </c>
-      <c r="G71" s="81">
+      <c r="G71" s="80">
         <v>5</v>
       </c>
-      <c r="H71" s="81">
+      <c r="H71" s="80">
         <v>5</v>
       </c>
-      <c r="I71" s="81">
+      <c r="I71" s="80">
         <v>4</v>
       </c>
-      <c r="J71" s="81">
+      <c r="J71" s="80">
         <v>8</v>
       </c>
-      <c r="K71" s="81">
+      <c r="K71" s="80">
         <v>8</v>
       </c>
-      <c r="L71" s="81">
+      <c r="L71" s="80">
         <v>8</v>
       </c>
-      <c r="M71" s="81">
+      <c r="M71" s="80">
         <v>5</v>
       </c>
       <c r="N71" s="18"/>
@@ -2797,7 +2865,7 @@
       <c r="L72" s="34">
         <v>-7</v>
       </c>
-      <c r="M72" s="83">
+      <c r="M72" s="82">
         <v>-2</v>
       </c>
       <c r="N72" s="18"/>
@@ -2810,51 +2878,51 @@
       <c r="A73" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="84">
+      <c r="B73" s="83">
         <f>SUM(B71:B72)</f>
         <v>1</v>
       </c>
-      <c r="C73" s="84">
+      <c r="C73" s="83">
         <f t="shared" ref="C73:M73" si="3">SUM(C71:C72)</f>
         <v>1</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D73" s="83">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E73" s="84">
+      <c r="E73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F73" s="84">
+      <c r="F73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G73" s="84">
+      <c r="G73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H73" s="84">
+      <c r="H73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I73" s="84">
+      <c r="I73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J73" s="84">
+      <c r="J73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K73" s="84">
+      <c r="K73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M73" s="84">
+      <c r="M73" s="83">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -2889,39 +2957,39 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="86"/>
-      <c r="I80" s="86"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
     </row>
     <row r="81" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="72" t="s">
@@ -2929,39 +2997,39 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
+      <c r="I82" s="101"/>
     </row>
     <row r="83" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
     </row>
     <row r="84" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="86"/>
-      <c r="I84" s="86"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="72" t="s">
@@ -2969,50 +3037,50 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="88" t="s">
+      <c r="A86" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="88"/>
-      <c r="G86" s="88"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="102"/>
+      <c r="I86" s="102"/>
     </row>
     <row r="87" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="88"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="88"/>
-      <c r="G87" s="88"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
     </row>
     <row r="88" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="88"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="87"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="72" t="s">
@@ -3020,117 +3088,121 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91" t="s">
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="92"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="96"/>
+      <c r="I91" s="97"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="93" t="s">
+      <c r="B92" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="78"/>
-      <c r="D92" s="78"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78" t="s">
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="G92" s="78"/>
-      <c r="H92" s="78"/>
-      <c r="I92" s="94"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="100"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="93"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="78"/>
-      <c r="I93" s="94"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="100"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="95" t="s">
+      <c r="B94" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="78" t="s">
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="G94" s="78"/>
-      <c r="H94" s="78"/>
-      <c r="I94" s="94"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="100"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="95"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78"/>
-      <c r="I95" s="94"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="100"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="95" t="s">
+      <c r="B96" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89" t="s">
+      <c r="C96" s="87"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="96"/>
+      <c r="G96" s="87"/>
+      <c r="H96" s="87"/>
+      <c r="I96" s="90"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="100"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="101"/>
-      <c r="I97" s="102"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="91"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="95" t="s">
+      <c r="B98" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="89"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="89" t="s">
+      <c r="C98" s="87"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="96"/>
+      <c r="G98" s="87"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="90"/>
     </row>
     <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="99"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="98"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="93"/>
+      <c r="I99" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="A78:I79"/>
+    <mergeCell ref="A82:I83"/>
+    <mergeCell ref="A86:I88"/>
     <mergeCell ref="B96:E97"/>
     <mergeCell ref="F96:I97"/>
     <mergeCell ref="B98:E99"/>
@@ -3141,10 +3213,6 @@
     <mergeCell ref="F92:I93"/>
     <mergeCell ref="B94:E95"/>
     <mergeCell ref="F94:I95"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="A78:I79"/>
-    <mergeCell ref="A82:I83"/>
-    <mergeCell ref="A86:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3693,20 +3761,20 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
